--- a/src/test/resources/post/ably_cu_post.xlsx
+++ b/src/test/resources/post/ably_cu_post.xlsx
@@ -12,18 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="60">
-  <si>
-    <t>수취인명 (30Byte)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">우편번호 5자리 , 예 : 00000 </t>
-  </si>
-  <si>
-    <t>주소1(동/읍/면 까지) (80Byte)</t>
-  </si>
-  <si>
-    <t>주소2(나머지주소) (80Byte)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
+  <si>
+    <t>수취인명 (30 Byte)</t>
+  </si>
+  <si>
+    <t>주소1(동/읍/면 까지) (100 Byte)</t>
+  </si>
+  <si>
+    <t>주소2(나머지주소) (100 Byte)</t>
   </si>
   <si>
     <t>전화번호 , 예 : 000-0000-0000</t>
@@ -32,18 +29,15 @@
     <t>추가전화번호(선택입력)</t>
   </si>
   <si>
-    <t>배송요청사항 (80Byte) (선택입력)</t>
-  </si>
-  <si>
-    <t>지불방법(선불/후불)</t>
+    <t>배송요청사항 (80 Byte) (선택입력)</t>
+  </si>
+  <si>
+    <t>지불방법(선불/착불)</t>
   </si>
   <si>
     <t>전영민</t>
   </si>
   <si>
-    <t>17726</t>
-  </si>
-  <si>
     <t>경기 평택시 원칠원길 56, 동광아파트 102동702호</t>
   </si>
   <si>
@@ -59,9 +53,6 @@
     <t>신예슬</t>
   </si>
   <si>
-    <t>48084</t>
-  </si>
-  <si>
     <t>부산 해운대구 좌동순환로 5 104동 3301호</t>
   </si>
   <si>
@@ -77,9 +68,6 @@
     <t>하은서</t>
   </si>
   <si>
-    <t>14311</t>
-  </si>
-  <si>
     <t>경기 광명시 소하로 38, 휴먼시아2단지아파트 204동 1103호</t>
   </si>
   <si>
@@ -92,9 +80,6 @@
     <t>김다영</t>
   </si>
   <si>
-    <t>06765</t>
-  </si>
-  <si>
     <t>서울 서초구 형촌8길 22, 지층 2호</t>
   </si>
   <si>
@@ -107,9 +92,6 @@
     <t>이채윤</t>
   </si>
   <si>
-    <t>17387</t>
-  </si>
-  <si>
     <t>경기 이천시 마장면 중앙로 36 경기도 이천시 마장면 중앙로36,106동 1304호(호반베르디움)</t>
   </si>
   <si>
@@ -125,9 +107,6 @@
     <t>이서윤</t>
   </si>
   <si>
-    <t>28424</t>
-  </si>
-  <si>
     <t>충북 청주시 흥덕구 대농로 17 107동4101호</t>
   </si>
   <si>
@@ -143,9 +122,6 @@
     <t>정예지</t>
   </si>
   <si>
-    <t>17331</t>
-  </si>
-  <si>
     <t>경기 이천시 부발읍 경충대로 2177 청구아파트105동 1601호</t>
   </si>
   <si>
@@ -158,9 +134,6 @@
     <t>김은서</t>
   </si>
   <si>
-    <t>34535</t>
-  </si>
-  <si>
     <t>대전 동구 흥룡로36번길 20 204호</t>
   </si>
   <si>
@@ -170,9 +143,6 @@
     <t>김성언</t>
   </si>
   <si>
-    <t>08556</t>
-  </si>
-  <si>
     <t>서울 금천구 독산로70길 89, 동성리치빌 202호</t>
   </si>
   <si>
@@ -180,9 +150,6 @@
   </si>
   <si>
     <t>김예지</t>
-  </si>
-  <si>
-    <t>13562</t>
   </si>
   <si>
     <t>경기 성남시 분당구 정자일로 80 405-1204</t>
@@ -236,7 +203,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -264,268 +231,235 @@
       <c r="G1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="0">
-        <v>7</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="E2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D2" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>11</v>
-      </c>
       <c r="G2" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s" s="0">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="E3" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="F3" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D3" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>18</v>
-      </c>
       <c r="G3" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>23</v>
-      </c>
       <c r="G4" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s" s="0">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="H7" t="s" s="0">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s" s="0">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s" s="0">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="H10" t="s" s="0">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>59</v>
-      </c>
-      <c r="H11" t="s" s="0">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
